--- a/gmarket.xlsx
+++ b/gmarket.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="351">
   <si>
     <t>상품명</t>
   </si>
@@ -22,502 +22,1051 @@
     <t>가격</t>
   </si>
   <si>
+    <t>[풀무원][풀무원] [개국 20프로적립] 볶음밥 3종 20봉 (탱글소시지 철판 볶음밥 10봉+황금밥</t>
+  </si>
+  <si>
+    <t>무색소 저염 백 명란젓 파지 1kg 알탕 파치 구이</t>
+  </si>
+  <si>
+    <t>미미의밥상 국내산 등뼈 대용량 감자탕 4.7kg+라면사리 증정/레토르트(실온보관)</t>
+  </si>
+  <si>
+    <t>[마녀바스켓]대구 북성로 연탄불고기 300g x5팩/쿠폰가 17200원</t>
+  </si>
+  <si>
+    <t>[인디안밥]인디안밥 83g 20개</t>
+  </si>
+  <si>
+    <t>[퍼실]아이 케어 퍼실 센서티브젤 8통+버넬 센서티브4통 外</t>
+  </si>
+  <si>
+    <t>[삼육]삼육두유 검은콩 칼슘 파우치 190ml 60팩</t>
+  </si>
+  <si>
+    <t>프롱 감쪽 새치 커버 틴트 스틱 / 쓱쓱 빗어서 흰머리 커버 3분완성</t>
+  </si>
+  <si>
+    <t>[비비고][비비고] (CJ제일제당) 소고기미역국 500G 8봉</t>
+  </si>
+  <si>
+    <t>남도/햇고을 전남 고흥 국내산 깐마늘 1kg (중+소)</t>
+  </si>
+  <si>
+    <t>[BBQ]BBQ 자메이카 통다리 바베큐 170g x 12팩</t>
+  </si>
+  <si>
+    <t>[빼빼로]롯데제과 초코빼빼로10갑+아몬드빼빼로10갑+누드빼빼로10갑</t>
+  </si>
+  <si>
+    <t>[서울우유]서울우유 멸균우유 흰우유 200mlx48개</t>
+  </si>
+  <si>
+    <t>[구글플레이]기프트코드 10만원 / 구글 기프트카드</t>
+  </si>
+  <si>
+    <t>[동원참치]동원 라이트 스탠다드 참치 150g 원터치 10개</t>
+  </si>
+  <si>
+    <t>[노스페이스키즈]키즈 파티 크루 세트 NT7UN13S_WHT</t>
+  </si>
+  <si>
+    <t>[네추럴라이즈](캐나다직수입)멀티비타민 꾸미 츄어블 어린이 키즈 종합비타민 구미 젤리 3박스(총 180개) 특가</t>
+  </si>
+  <si>
+    <t>[호올스]호올스 스틱 34g 20개 7종 맛선택</t>
+  </si>
+  <si>
+    <t>[상하치즈]상하 유기농 어린이 고칼슘치즈 4단계 60매/아기치즈</t>
+  </si>
+  <si>
+    <t>[베비언스]베비언스 킨더밀쉬 2단계(200ML)24입</t>
+  </si>
+  <si>
+    <t>[펩시]펩시콜라 제로 슈거라임 355ml 24캔 캔음료/탄산음료/제로콜라/음료수/펩시제로</t>
+  </si>
+  <si>
+    <t>[서울우유]서울우유 멸균 흰우유 1000mlx10개</t>
+  </si>
+  <si>
+    <t>[순수한면]성분걱정 제로 순수한면 생리대16Px4팩+2Px2팩/누구나 11600원</t>
+  </si>
+  <si>
+    <t>[어가찬] 바다일품 백진미채 1kg</t>
+  </si>
+  <si>
+    <t>[구글플레이]기프트코드 5만원 / 구글 기프트카드</t>
+  </si>
+  <si>
+    <t>[농협](행사상품)믿고먹는안심농협쌀20KG 포</t>
+  </si>
+  <si>
+    <t>[캘리포니아골드뉴트리션](아이허브) 캘리포니아골드뉴트리션 3개X CGN 꿀벌 프로폴리스 2배 농축 500mg 90베지캡슐 빠른직구</t>
+  </si>
+  <si>
+    <t>[파란푸드]호두 800g(400g+400g) 견과류 22년산(1/4태)</t>
+  </si>
+  <si>
+    <t>[CJ제일제당]꼬마 돈까스 6봉_꼬마새우까스250gX3 + 꼬마돈까스400gX3</t>
+  </si>
+  <si>
+    <t>[안티프라그]부광 얇은헤드 칫솔 초극세모 12입 X 3세트 (최종15300원)</t>
+  </si>
+  <si>
+    <t>[사세]사세 빵가루 리얼새우패티 650g</t>
+  </si>
+  <si>
+    <t>맥심 카누 미니 마일드 240T(120T+120T)</t>
+  </si>
+  <si>
+    <t>[일리]illy 일리 네스프레소 호환 커피 캡슐 인텐소 디카페인 룽고 포르테 클라시코 5종 맛선택 100캡슐</t>
+  </si>
+  <si>
+    <t>[오뚜기밥]오뚜기 맛있는 밥 30입(210g10 x 3개)</t>
+  </si>
+  <si>
+    <t>[오설록]오설록 프리미엄 티 컬렉션 8종세트 X 3세트</t>
+  </si>
+  <si>
+    <t>[신세계푸드]신세계푸드 올반 찰핫도그 BEST 2종 35봉(찰15봉크런치20봉)</t>
+  </si>
+  <si>
+    <t>[신세계푸드]조선호텔 포기김치 4kg 100년 전통의 프리미엄 김치</t>
+  </si>
+  <si>
+    <t>[피죤]고농축피죤 시그니처 대용량 미스틱레인 5.7L 2개 +사은품</t>
+  </si>
+  <si>
+    <t>[한성]한성 생선까스 1.2kg(20조각)</t>
+  </si>
+  <si>
+    <t>[구글플레이]기프트코드 3만원 / 구글 기프트카드</t>
+  </si>
+  <si>
+    <t>무안 유기농 달수 꿀고구마 5kg(왕)</t>
+  </si>
+  <si>
+    <t>[제주삼다수]제주삼다수 그린 2L 24병 /생수전문배송</t>
+  </si>
+  <si>
+    <t>[비비고][비비고] [CJ제일제당] 스팸 클래식 200G 10개</t>
+  </si>
+  <si>
+    <t>[천하장사]간식/진주 천하장사 오리지널 1500g(15g100입) 14790원 지마켓쿠폰가</t>
+  </si>
+  <si>
+    <t>[노스페이스키즈]키즈 파티 크루 세트 NT7UN13 4종 택1</t>
+  </si>
+  <si>
+    <t>엠파크 캘리포니아 블랙라벨 달콤 오렌지 12.2kg(최대100과)</t>
+  </si>
+  <si>
+    <t>[구글플레이]기프트코드 20만원 / 구글 기프트카드</t>
+  </si>
+  <si>
+    <t>[셀렉스]셀렉스 프로핏 웨이프로틴 아메리카노 드링크 2박스 (330mlX24팩) (유통기한 임박특가 30%쿠폰/ 4월 5일)</t>
+  </si>
+  <si>
+    <t>[휠라키즈][휠라키즈] 키즈 클래식보더 아쿠아 아동화/3XM01802E</t>
+  </si>
+  <si>
+    <t>[미미네]미미네 어묵많이 국물떡볶이 10봉 (오리지널+어묵많이 선택)</t>
+  </si>
+  <si>
+    <t>[진라면]진라면 매운맛 40봉</t>
+  </si>
+  <si>
+    <t>[슈퍼대디]아기물티슈 (최종 24900원) 엑설런트82 캡형 70매 20팩(82g)</t>
+  </si>
+  <si>
+    <t>[네추럴블라썸](쿠폰적용가 25110원~)네추럴블라썸 울트라슬림 비건기저귀 4팩 (팬티형/밴드형)</t>
+  </si>
+  <si>
+    <t>[깨끗한나라](쿠폰적용가30880) 깨끗한나라 순수시그니처 화장지 브라운 30m 30롤 2팩</t>
+  </si>
+  <si>
+    <t>[머스트비]머스트비外 봄맞이 사계절 쇼핑 앵콜 특가</t>
+  </si>
+  <si>
+    <t>[몽베스트]몽베스트 330ml 40병 /생수전문배송</t>
+  </si>
+  <si>
+    <t>[해화당]해화당 이영자의 뼈없는갈비탕 900g x 8팩</t>
+  </si>
+  <si>
+    <t>[비비고][비비고] (CJ제일제당) 육개장 500G 8봉</t>
+  </si>
+  <si>
+    <t>만타스시31 알푸짐 알탕 3~4인분 / 쿠폰가 13920원</t>
+  </si>
+  <si>
+    <t>김하진 뼈없는 한우 도가니탕 700g10팩 (총 7kg)</t>
+  </si>
+  <si>
+    <t>감람 일러스트집 ROMANCE (로맨스) 감람</t>
+  </si>
+  <si>
+    <t>[GNM자연의품격]루테인 지아잔틴 아스타잔틴 3박스(총 3개월분) / 눈건강 아연 셀레늄</t>
+  </si>
+  <si>
+    <t>[GNM자연의품격]건강한 간 밀크씨슬 6박스(총 6개월분) / 간건강 실리마린 비타민B 판토텐산</t>
+  </si>
+  <si>
+    <t>[신세계푸드]홍대맛집구슬함박 스테이크 오리지널 180g 16팩</t>
+  </si>
+  <si>
+    <t>[가바] 23SS 40주년 에디션 라이크라 여성 데님 2종</t>
+  </si>
+  <si>
+    <t>[삼진어묵]삼진어묵 옛날모듬어묵 1Kg x 3개</t>
+  </si>
+  <si>
+    <t>[아이더](광주신세계)봄 신학기 기능성 남여공용 바람막이 브레스트 / DMP21163</t>
+  </si>
+  <si>
+    <t>불맛가득 중화짬뽕 중화면 10인분 + 짬뽕소스 10개 + 2세트 구매시 3000원 할인</t>
+  </si>
+  <si>
+    <t>[폴햄](롯데백화점)남성 슬림 사이드밴딩 슬랙스 팬츠 외 4종 택1 (PHC3PP1032 1033 1036 1093 1012)</t>
+  </si>
+  <si>
+    <t>[킨더]킨더조이 보이T3X3개+걸T3X3개(총 18입) +킨더초콜릿 4개입 증정</t>
+  </si>
+  <si>
+    <t>[늘품애]늘품애 광천 도시락김 4gX60봉</t>
+  </si>
+  <si>
+    <t>[동동브라더스]통영 싱싱 멍게 (깐멍게) 500g</t>
+  </si>
+  <si>
+    <t>[구글플레이]기프트코드 1만원 / 구글 기프트카드</t>
+  </si>
+  <si>
+    <t>[제주삼다수]제주삼다수 그린 500ml 40병 /생수전문배송</t>
+  </si>
+  <si>
+    <t>[키즈마루]하이드로 국산 3중 KF80 황사 덴탈 마스크 대형 300매 미세먼지 차단</t>
+  </si>
+  <si>
+    <t>[나이키]나이키 에어맥스 인터락 라이트 운동화 남성 여성</t>
+  </si>
+  <si>
+    <t>[ahc]한정물량앰플스틱 AHC 최신상 앰플인아이크림 특별구성</t>
+  </si>
+  <si>
+    <t>이맛쌀 20kg</t>
+  </si>
+  <si>
+    <t>[롯데칠성]펩시콜라 제로 210ml x 30캔/탄산음료/제로콜라/음료수</t>
+  </si>
+  <si>
+    <t>5%쿠폰 나이키 뉴발란스 스우시 6팩 크루삭스 운동 스포츠양말</t>
+  </si>
+  <si>
+    <t>동결건조 9종 과일 야채 믹스칩 과자 150g+150g MD7</t>
+  </si>
+  <si>
+    <t>[프레시지]프레시지 부채살 페퍼 스테이크 190g x4팩</t>
+  </si>
+  <si>
+    <t>[맥심]맥심 모카골드 마일드 커피 믹스 210T</t>
+  </si>
+  <si>
+    <t>[상하치즈]매일 상하치즈 아기치즈 2단계 60매/치즈</t>
+  </si>
+  <si>
+    <t>[마이비데]크리넥스 마이비데 클린케어 캡 80매 X 8팩 화장실용 비데물티슈</t>
+  </si>
+  <si>
+    <t>[오뚜기밥]오뚜기 맛있는 오뚜기밥 210g 24개</t>
+  </si>
+  <si>
+    <t>[더미식]더미식 백미밥 210g 24개 + 장인라면(얼큰담백) 2봉 증정 (쿠폰적용가 개당 979원)</t>
+  </si>
+  <si>
+    <t>2023년 고고 월드 세계역사 문화여행 전50권 최신판</t>
+  </si>
+  <si>
+    <t>[반에이크]반에이크 봄 인기 데일리룩 추천~ 자켓/블라우스외 특가 + 10% 할인쿠폰</t>
+  </si>
+  <si>
+    <t>씨투엠에듀 도형학습의 기준 플라토 유치~초등 단계별 선택구매(전4권)</t>
+  </si>
+  <si>
+    <t>[또온나]주니어 심리스 노와이어 브라 학생 2단계 CW 에코</t>
+  </si>
+  <si>
+    <t>[아디다스](신세계김해점)[RUNNING] 듀라모 10 WIDE / 듀라모 10 (GY3855 GY3856 GX0709 GX0711 HP2384 HP2391)</t>
+  </si>
+  <si>
+    <t>[슈퍼대디]아기물티슈 (최종 19970원) NEW 시그니처 미스터펭 민트 캡형 70매 20팩(70g)</t>
+  </si>
+  <si>
+    <t>[햇반]CJ 햇반 210g 36개 1박스</t>
+  </si>
+  <si>
+    <t>[나이키]나이키 와플 데뷰 운동화 남성 여성</t>
+  </si>
+  <si>
+    <t>(쌀가게) (신세계강남점)[주문폭증/순차출고] 쌀가게 수향미 (특등급) 10kg</t>
+  </si>
+  <si>
+    <t>[풀무원]개국 20프로적립 볶음밥 3종 20봉 (탱글소시지 철판 볶음밥 10봉+황금밥알 포크앤스</t>
+  </si>
+  <si>
+    <t>[시에로][시에로] 남성 23 SS FAUX 레더 보머자켓</t>
+  </si>
+  <si>
+    <t>[하늘보리]하늘보리 500ml x 20입</t>
+  </si>
+  <si>
+    <t>[미래생활]순수PURE천연펄프 25m 30롤 x 3팩 휴지</t>
+  </si>
+  <si>
+    <t>[시크릿데이](총 112매 9980원 핫딜) 베스트셀러 러브 생리대 입는오버나이트 / 복수구매 사은품 증정</t>
+  </si>
+  <si>
+    <t>[2080]2080 퓨어 마운틴 솔트 치약 핑크 120g 12개</t>
+  </si>
+  <si>
+    <t>[SOil](S-OIL) 모바일주유권 5만원권</t>
+  </si>
+  <si>
+    <t>[스타벅스]스타벅스 카페라떼 컵커피 200mlx20컵+아이스포장</t>
+  </si>
+  <si>
+    <t>[맥심]맥심 화이트골드 400T</t>
+  </si>
+  <si>
+    <t>[케피](22년햅쌀) 쌀10kg 당일도정 상등급 혼합미 케피 오늘첫쌀 무료배송</t>
+  </si>
+  <si>
+    <t>[맥심]맥심 슈프림 골드 커피믹스 2295g 1개 170개입</t>
+  </si>
+  <si>
+    <t>[동원참치]DHA 참치 150g 원터치 10개</t>
+  </si>
+  <si>
+    <t>[아침농산]2022년 햅쌀 농부의아침 쌀10kg 백미 상등급</t>
+  </si>
+  <si>
+    <t>닥터안스에그 햇달걀 2판 60알 달걀 생란 계란 중란 30구+30구 무항생제 수의사계란</t>
+  </si>
+  <si>
+    <t>[무균무때]세정제 안티박 욕실/주방/곰팡이 500ml 2+1개+리필500ml(총4개)/9900원</t>
+  </si>
+  <si>
+    <t>[맥심](행사상품)N 동서식품맥심모카골드믹스230T 2760G</t>
+  </si>
+  <si>
+    <t>영양쌀 20kg 22년산 햅쌀 당일도정</t>
+  </si>
+  <si>
+    <t>[베베앙(물티슈)]베베앙 아기물티슈 시그니처플러스 캡형 100매 10팩</t>
+  </si>
+  <si>
+    <t>[아이러브베베]아이러브베베물티슈핑크100매캡형X20팩</t>
+  </si>
+  <si>
+    <t>[네파키즈](롯데백화점)스트라이크 트레이닝세트 KJC5953</t>
+  </si>
+  <si>
+    <t>[네스카페]테이스터스초이스 커피믹스 300T + 레트로머그컵 2개 증정</t>
+  </si>
+  <si>
+    <t>[에그머니](에그머니) 온라인게임상품권 5만원</t>
+  </si>
+  <si>
+    <t>[생가득]모짜렐라 핫도그80g 5입X4봉(총20개)</t>
+  </si>
+  <si>
+    <t>[아몬드브리즈]매일 아몬드브리즈 오리지널 190ml 48팩/두유</t>
+  </si>
+  <si>
+    <t>[미엘(물티슈)]미엘 클래식 물티슈 100매 캡형 20팩 우체국택배 빠른배송</t>
+  </si>
+  <si>
+    <t>[스파클]스파클생수 500ml 100병 무라벨생수</t>
+  </si>
+  <si>
+    <t>[락토핏]종근당건강 유산균 락토핏 골드 50포 3통(150일분) / 프로바이오틱스+아연 / 보장균수 2배 증량 유산균</t>
+  </si>
+  <si>
+    <t>[백산수]백산수 무라벨 2L 24병 /생수전문배송</t>
+  </si>
+  <si>
+    <t>에드토이 수학 자석교구 9종 선택구매</t>
+  </si>
+  <si>
+    <t>[헬로](쿠폰적용가33810) 헬로 순수 3겹 천연펄프 화장지 30m 30롤 3팩 초특가행사</t>
+  </si>
+  <si>
+    <t>아침이슬 고당도 성주 꿀 참외 실속 2kg 혼합랜덤과</t>
+  </si>
+  <si>
+    <t>[서울우유]멸균우유 1000ml x 10입 (1박스)</t>
+  </si>
+  <si>
+    <t>[고려은단]비타민C 1000 600정 X 1개 (20개월분)</t>
+  </si>
+  <si>
+    <t>[하림]하림 닭가슴살 블랙페퍼 100g 20봉</t>
+  </si>
+  <si>
+    <t>[구글플레이]기프트코드 15만원 / 구글 기프트카드</t>
+  </si>
+  <si>
+    <t>[햇반]햇반 210g x24입</t>
+  </si>
+  <si>
+    <t>사람과교육 지오콘 디럭스 세트</t>
+  </si>
+  <si>
+    <t>(쌀가게) (신세계경기점)[주문폭증/순차출고] 쌀가게 수향미 (상등급) 10kg</t>
+  </si>
+  <si>
+    <t>[에드워드권]100% 한우 에드워드권 한우 특 내장탕 700g x10팩 총 7kg</t>
+  </si>
+  <si>
+    <t>청송 주왕산사과(특대) 3kg 2박스(6kg) 부사(미시마품종)</t>
+  </si>
+  <si>
+    <t>시크루즈/롱원피스/상하세트/점프슈트/가디건/스커트/팬츠/빅사이즈/데일리룩/루즈핏/시즌오프</t>
+  </si>
+  <si>
+    <t>[컵누들]컵누들 우동맛 컵 38.1g6입+매콤한맛 컵 37.8g6입+잔치 쌀국수 34.2g6입</t>
+  </si>
+  <si>
+    <t>우리아이 반찬 짜지않은 메추리알 장조림 1kg x 2팩</t>
+  </si>
+  <si>
+    <t>농협우리쌀20kg</t>
+  </si>
+  <si>
+    <t>[킨즈]킨즈 초소형 소형 3D 아이랑 유아 아동 마스크 100매+유아치실 100개</t>
+  </si>
+  <si>
+    <t>[티비제이]TBJ 봄맞이 준비 가성비특가 아이템 모음전</t>
+  </si>
+  <si>
+    <t>용평리조트 2223 리프트권 3일특가 (~03.05)</t>
+  </si>
+  <si>
+    <t>[동원참치]동원 라이트 스탠다드 참치 100g 15캔 원터치</t>
+  </si>
+  <si>
+    <t>[세타필]NEW 대용량 로션 473ml 3개 (22년 신제품) +사은품</t>
+  </si>
+  <si>
+    <t>[순수식품]rTG 알티지 오메가3 비타민D 6개월분(180캡슐) 비타민E 비타민A 4종 복합 기능성</t>
+  </si>
+  <si>
+    <t>[에그머니](에그머니) 온라인게임상품권 3만원</t>
+  </si>
+  <si>
+    <t>[캐츠랑][무료배송 박스포장]NEW 캐츠랑 전연령 점보 20kg_신몰물류센터직배송</t>
+  </si>
+  <si>
+    <t>[한예지]클린앤소프트 3겹 30M 30롤 3팩 천연펄프 리뉴얼 /화장지특가</t>
+  </si>
+  <si>
+    <t>엠시피 번짐없는 시크 펜 아이라이너 1+1 한정특가</t>
+  </si>
+  <si>
+    <t>여성팬티/ 슈/퍼/딜 특가 1+1 2박스/미디6종/무료반품/3+1사은품</t>
+  </si>
+  <si>
+    <t>[씽크북]레노버 Thinkbook 15 G3 ACL 21A4A032KR (R5-5600U/8GB/256GB/FreeDos) 혜택가 47만/레노버 정품마우스 증정</t>
+  </si>
+  <si>
+    <t>22년장길영 부사 보조개 사과 4kg2박스 / 총8kg</t>
+  </si>
+  <si>
+    <t>맛있게 매운맛 하남쭈꾸미 500g 3팩</t>
+  </si>
+  <si>
+    <t>3장세트 남녀공용 무지 라운드 면 반팔티셔츠</t>
+  </si>
+  <si>
+    <t>[마니커]마니커 버팔로 치킨윙봉 1kg+1kg+400g 증량이벤트</t>
+  </si>
+  <si>
+    <t>[스파클]스파클생수 2L 30병 무라벨생수</t>
+  </si>
+  <si>
+    <t>[나랑드사이다]나랑드사이다 1.5L x 12PET /무배</t>
+  </si>
+  <si>
+    <t>[크록스]크록스 남녀캐주얼화 학생용실내화 스포츠샌들 사무용슬리퍼</t>
+  </si>
+  <si>
+    <t>[버블트리]20% 주니어 여아 봄신상 스쿨룩 상하세트 팬츠 맨투맨 원피스 레깅스 데님 초등학생옷 초등여아</t>
+  </si>
+  <si>
+    <t>[믈레코비타]믈레코비타 수입멸균우유 1000ml 아이러브밀크 12개입 /밀크시크릿 대체출고</t>
+  </si>
+  <si>
+    <t>[코카콜라제로]코카콜라제로 190ml 30CAN 1박스</t>
+  </si>
+  <si>
+    <t>[다우니]다우니 프리미엄 액체형 세제 블루 2.8L 1개</t>
+  </si>
+  <si>
+    <t>[라인바싸]라인바싸 탄산수 500ml 2박스 ( 20입+20입 )</t>
+  </si>
+  <si>
+    <t>[젤리스푼]아동복/아동의류/원피스/봄신상/키즈/가디건/케어베어</t>
+  </si>
+  <si>
+    <t>[제주삼다수]제주삼다수 그린 2L 12병 /생수전문배송</t>
+  </si>
+  <si>
+    <t>마시옐로우 알이탱글 맥반석 구운계란 60구(2판)-대란</t>
+  </si>
+  <si>
+    <t>[녹십초]루테인 골드(총180캡슐)10중 기능성/베타카로틴+비타민D/ +KF94x3매</t>
+  </si>
+  <si>
+    <t>[키친아트]키친아트 블랙프라이팬 1+1+1 내맘대로 골라담기3P</t>
+  </si>
+  <si>
+    <t>영광군농협 신동진쌀 20kg 22년 햅쌀</t>
+  </si>
+  <si>
+    <t>[소화가잘되는우유]매일 소화가 잘되는 멸균우유 190ml 48팩</t>
+  </si>
+  <si>
+    <t>[브리스틱]에르고 유아 어린이 칫솔 1단계2단계 10개</t>
+  </si>
+  <si>
+    <t>[크리넥스]3겹 데코앤소프트 28MX24롤 2팩 두루마리 화장지 휴지</t>
+  </si>
+  <si>
+    <t>[오리온]생수전문배송 오리온 제주용암수 무라벨 2L 24펫</t>
+  </si>
+  <si>
+    <t>[맥심]맥심 모카골드 커피믹스 180T+180T +테틈머그2P</t>
+  </si>
+  <si>
+    <t>[아몬드브리즈]매일 아몬드브리즈 언스위트 190ml 48팩/두유</t>
+  </si>
+  <si>
+    <t>[맥심]맥심모카골드커피믹스 250T</t>
+  </si>
+  <si>
+    <t>[상하치즈]매일 상하 유기농 어린이치즈 3단계 60매/치즈</t>
+  </si>
+  <si>
+    <t>[건국유업]건국 착한목장 무항생제 우유 190ml 48팩</t>
+  </si>
+  <si>
+    <t>[켈로그]오곡 첵스초코 1200g+콘푸로스트 1320g + 증정</t>
+  </si>
+  <si>
+    <t>당도선별 블랙라벨 오렌지 중소과 25과(2세트 구매시 5과추가) 썬키스트 퓨어스펙</t>
+  </si>
+  <si>
+    <t>[요즘에]만장 판매 하비 고민 덜어주는 데님 (Made) S~2XL/ 스테디치즈데님</t>
+  </si>
+  <si>
     <t>국산 여성 기본 무지 단목 양말 남성 카바 10켤레</t>
   </si>
   <si>
-    <t>[미즈노]미즈노 쿠션 미드 5족</t>
-  </si>
-  <si>
-    <t>리브엘 메이크업 화장품 파우치/여행용/미니백/이너백</t>
-  </si>
-  <si>
-    <t>(10+10 양말세트) 총 20켤레 데일리 곰돌이 중목 양말 +5%추가할인 주문폭주 인기 디자인</t>
-  </si>
-  <si>
-    <t>[미즈노]미즈노 쿠션 단목 5족</t>
-  </si>
-  <si>
-    <t>1+1 1989 뉴욕 자수로고 볼캡 남여공용 야구 모자 썬캡 버킷햇</t>
-  </si>
-  <si>
-    <t>[미즈노]미즈노 쿠션 크루 5족</t>
-  </si>
-  <si>
-    <t>[비너스]비비안 비너스 외 고탄력 팬티 스타킹 10매 벌크 학생 압박 직장인 살색 검정 무발 덧신 페이크삭스 기모</t>
-  </si>
-  <si>
-    <t>[어그] 핫딜 [UGG] 어그 남여공용 코케트 털슬리퍼 체스트넛 블랙 QUG27USSL001BK</t>
-  </si>
-  <si>
-    <t>[에스콰이아]27% 에스콰이아 남여 23SS 슈즈 잡화 (스니커즈 구두 단화 가방 외)</t>
-  </si>
-  <si>
-    <t>국산 남자 여자 무지 발목양말 10켤레</t>
-  </si>
-  <si>
-    <t>[프롬산타]자체제작 국산양말 남여 면양말 발목/중목/장목/흰양말/검정양말/남성/여성/패션양말/양말세트 다양한목길이</t>
-  </si>
-  <si>
-    <t>[미즈노]미즈노 쿠션 크루 4족</t>
-  </si>
-  <si>
-    <t>[버버리](명품직구) 버버리 8053048 8065871 프랭크비 퀄팅 자켓 4색</t>
-  </si>
-  <si>
-    <t>국산 여성 기본 무지 중목 양말 10켤레</t>
-  </si>
-  <si>
-    <t>론티아 통굽 밴딩끈 키높이 스니커즈(5.5cm)</t>
-  </si>
-  <si>
-    <t>[투투삭스]균일가 착용감 좋은 양말 국내생산/중목/장목/스니커즈/발목/패션/학생</t>
-  </si>
-  <si>
-    <t>1+1 미끄럼방지 욕실화 화장실 욕실 물빠짐 슬리퍼</t>
-  </si>
-  <si>
-    <t>[미즈노]미즈노 남성 단목 7족</t>
-  </si>
-  <si>
-    <t>룰루싹스 남녀양말 20켤레+매너단추10개 8900원 골지 기모 무지 스포츠 기능성 등산 양말</t>
-  </si>
-  <si>
-    <t>10% 레노마벨트 런칭 최종혜택가 28800원~ 오직 G마켓에서만</t>
-  </si>
-  <si>
-    <t>스마일거실화 1+1 실내화 슬리퍼 층간소음방지 집 03/02 예약발송</t>
-  </si>
-  <si>
-    <t>포니에 소프트 스퀘어토우 고무창 플랫슈즈(1.5cm)</t>
-  </si>
-  <si>
-    <t>[비에프엘아웃도어]BFL 3323 발편한 슬립온 운동화 끈없는 검정 신발</t>
-  </si>
-  <si>
-    <t>바디메틱 종아리 압박밴드 (메쉬베이직) 1+1</t>
-  </si>
-  <si>
-    <t>[콜맨]콜맨 인디 성인 캠핑 슬리퍼 블로퍼</t>
-  </si>
-  <si>
-    <t>R 11002 남성 여성 에어 운동화 런닝화 워킹화 신발</t>
-  </si>
-  <si>
-    <t>국산 남자 여자 엣지 발목양말 10켤레</t>
-  </si>
-  <si>
-    <t>룰루싹스(여성용) 러블리 베어 30켤레+ 매너단추10개 봄 선물 수면 양말</t>
-  </si>
-  <si>
-    <t>[NeeGee]14K 골드100%정품 큐빅 이어링 택1</t>
-  </si>
-  <si>
-    <t>[나인티고]나인티고 샤오미 캐리어 다뉴브 기내용 20인치</t>
-  </si>
-  <si>
-    <t>[엘칸토](20%쿠폰) 엘칸토 23년 신상/BEST 슈즈 모음전 (스니커즈/로퍼/정장화 외)</t>
-  </si>
-  <si>
-    <t>JEEP (지프) 캐쥬얼벨트 남성 남자 청바지벨트 골프 BT-0392</t>
-  </si>
-  <si>
-    <t>WilliamPOLO-17119P 남성벨트 정장벨트 남자 가죽벨트</t>
-  </si>
-  <si>
-    <t>신상 에나멜 로퍼 옥스퍼드화 여성 단화 여자 블로퍼</t>
-  </si>
-  <si>
-    <t>[에스앤알디]여성신발 니트 스니커즈 슬립온 단화 여성화 플랫슈즈 로퍼 SN621</t>
-  </si>
-  <si>
-    <t>[아디다스][아디다스] 알파바운스 슬라이드 2.0 (0089209) GY9415</t>
-  </si>
-  <si>
-    <t>프루티 소프트몰드 슬림베이직 플랫슈즈(1cm)</t>
-  </si>
-  <si>
-    <t>레인보우 중목 라인양말_10+10켤레 세트 (할인특가)</t>
-  </si>
-  <si>
-    <t>JEEP(지프) 소가죽남성벨트 남자 허리띠 정장 BT 0475</t>
-  </si>
-  <si>
-    <t>월드컵과 함께 편안한 하루 남성 여성 커플 운동화 러닝화 헬스화 슬립온 단화 슬리퍼 신발</t>
-  </si>
-  <si>
-    <t>남자 고급 무지 중목 양말 5켤레</t>
-  </si>
-  <si>
-    <t>국산 남자 여자 페이크삭스 덧신 양말 베이직 10켤레</t>
-  </si>
-  <si>
-    <t>바닐라슈 라리언 베이직 몰드창 쿠션 메리제인 플랫펌프스(2cm3.5cm5.5cm)</t>
-  </si>
-  <si>
-    <t>Jeep 야구 캡모자 볼캡 남자 여자 남성 여성 CA0015</t>
-  </si>
-  <si>
-    <t>[콜맨]콜맨 콜린2 성인 블로퍼 캠핑슬리퍼</t>
-  </si>
-  <si>
-    <t>[페이지플린]무배/사은품증정/빛나는 14K핀귀걸이 목걸이 팔찌 반지 外</t>
-  </si>
-  <si>
-    <t>[티르리르](입점기념) 서현이 선택한 티르리르 쥬얼리 14K 할인전</t>
-  </si>
-  <si>
-    <t>[행텐]소가죽 컴포트화 캐주얼 옥스포드 스니커즈 남성신발</t>
-  </si>
-  <si>
-    <t>[행텐]소가죽 캐주얼구두 컴포트화 효도화 남자신발 활동화</t>
-  </si>
-  <si>
-    <t>10% 국내생산 양말 남성여성 중목/장목/학생/스포츠/정장/패션/덧신/페이크삭스</t>
-  </si>
-  <si>
-    <t>[AllRi]올리 소가죽 제인 컴포트슈즈</t>
-  </si>
-  <si>
-    <t>[칼하트]칼하트 레거시 스탠다드 백팩 (BLACK) 8919032101</t>
-  </si>
-  <si>
-    <t>[프리웨이]프리웨이 남성 소가죽 캐주얼화 RICOXC2030MFREF1</t>
-  </si>
-  <si>
-    <t>틱앤톡 여성 스니커즈 봄 운동화 여자 단화 슬립온 키높이 신발 어글리슈즈</t>
-  </si>
-  <si>
-    <t>러빙유 스무스누벅 골드메탈힐 펌프스(7cm9cm)</t>
-  </si>
-  <si>
-    <t>[월드컵]기어2 남성 여성 패션 다이얼 신발 운동화 러닝화 워킹화 조깅화 헬스화 트레킹화 등산화</t>
-  </si>
-  <si>
-    <t>국산 10켤레 남자 여자 단목 학생 카바 교복양말</t>
-  </si>
-  <si>
-    <t>국산(GS) 남성 여성 심플단목 10켤레 무지 학생 흰색 패션양말</t>
-  </si>
-  <si>
-    <t>[페이퍼플레인]여성소프트 이중쿠션 통굽 키높이 사무 슬리퍼 PP1507</t>
-  </si>
-  <si>
-    <t>emis 야구모자 기본 스타일 이미스 모자 녹색 단색</t>
-  </si>
-  <si>
-    <t>바디메틱 손목 압박밴드 2개입(한쌍) 1+1</t>
-  </si>
-  <si>
-    <t>[행텐]소가죽 남성로퍼 컴포트화 단화 남자 슬립온 캐주얼</t>
-  </si>
-  <si>
-    <t>[무크]10% 무크 남여 BEST 봄신발 50종 로퍼/스니커즈/구두/슬링백/뮬 外</t>
-  </si>
-  <si>
-    <t>[페이퍼플레인]신발 스니커즈 컨버스 SN152 커플신발 여성 남성 단화</t>
-  </si>
-  <si>
-    <t>[브이디브이알(선글라스)] VDVR Carino 선글라스(VRBM02)</t>
-  </si>
-  <si>
-    <t>인기 브랜드 패션 남녀 선글라스 안경테 50종 특가</t>
-  </si>
-  <si>
-    <t>어반트래커 시리즈/어글리슈즈 운동화 스니커즈 키높</t>
-  </si>
-  <si>
-    <t>[에스앤알디]남녀공용 다이얼 에어 운동화 런닝화 워킹화 SN610</t>
-  </si>
-  <si>
-    <t>[에스앤알디]남녀공용 초경량 커플 운동화 SN608 워킹화 스니커즈 10%중복 페이퍼플레인 초경량 커플 운동화 외</t>
-  </si>
-  <si>
-    <t>슬립온 플랫 단화 여성 키높이 운동화 여자 스니커즈</t>
-  </si>
-  <si>
-    <t>[프롬산타]자체제작 당일발송 남자여자 무지 단목양말 흰양말 검정양말 학생양말 10켤레 3color / 가성비최고 면양말</t>
-  </si>
-  <si>
-    <t>[미즈노]미즈노 여성 단목 7족</t>
-  </si>
-  <si>
-    <t>라코스테 발목 신사 정장 덧신 남자 여자 양말</t>
-  </si>
-  <si>
-    <t>베르디 이너쿠션 탄력몰드창 컴포트슈즈(4.5cm)</t>
-  </si>
-  <si>
-    <t>[월드컵]오디너리 ON 남녀공용 니트 경량 슬립온 신발 단화</t>
-  </si>
-  <si>
-    <t>[휠라]런칭가 69900원FILA 22FW 신상 더블오버 컴포트 운동화 여성용</t>
-  </si>
-  <si>
-    <t>SS251 23SS 직수입 드라이빙 에나멜 로퍼</t>
-  </si>
-  <si>
-    <t>[브라이튼]브라이튼 콜딘 20인치 기내용 하드 캐리어 여행 가방 여행용</t>
-  </si>
-  <si>
-    <t>[아쿠런]아쿠아슈즈 물놀이 워터파크 바닷가 해수욕장 슈즈</t>
-  </si>
-  <si>
-    <t>[이사도라]여행 대용량 스퀘어 보스턴 백 bag07 2단으로 더 늘어나는 여행 가방</t>
-  </si>
-  <si>
-    <t>[가이거][가이거] 블뤼테 토트백 (+참장식 웨빙스트랩)</t>
-  </si>
-  <si>
-    <t>삭스팝 42g 톡톡한 남자 무지 중목 신사 양말 8켤레 세트</t>
-  </si>
-  <si>
-    <t>[몽벨]몽벨 라이프플렉스 트레킹화 (남)</t>
-  </si>
-  <si>
-    <t>[콜맨]콜맨 콜린 성인 캠핑 슬리퍼 블로퍼</t>
-  </si>
-  <si>
-    <t>[콜맨]콜맨 노스 성인 슬립온 운동화</t>
-  </si>
-  <si>
-    <t>EVA 커밍 국산 만능화 /학교 학생 실내화 면실내화</t>
-  </si>
-  <si>
-    <t>[MLB]MLB 스포츠양말 3족/5족/6족세트 남자양말 여성 학생 중목 장목 단목 덧신 발목 패션</t>
-  </si>
-  <si>
-    <t>1+1 파라다이스 자수 볼캡 모자 남여공용 야구 모자 썬캡 버킷햇</t>
-  </si>
-  <si>
-    <t>국산 남자 아가일 발목양말 10켤레</t>
-  </si>
-  <si>
-    <t>국산 고급 10켤레 여성 남성 무지 단목 중목 학생 발목밴딩 흰양말 검정양말</t>
-  </si>
-  <si>
-    <t>[내셔널지오그래픽]내셔널지오그래픽 N231ABG580 버디 백팩 BLACK (5000590907)</t>
-  </si>
-  <si>
-    <t>[에스앤알디]신발 남녀공용 슬립온 스니커즈 체크슬립온 SN618</t>
-  </si>
-  <si>
-    <t>더빨강양말 봄 학생양말/패션양말/발목/중목/장목/덧신</t>
-  </si>
-  <si>
-    <t>소가죽. 블랑디 토트 크로스백. kj-5-3</t>
-  </si>
-  <si>
-    <t>하이언더바 국산 남자 여자 양말 균일가 봄 패션 발목 단목 중목 장목 스포츠 학생 신사 정장</t>
-  </si>
-  <si>
-    <t>R 113 남성 여성 운동화 런닝화 워킹화 스니커즈 신발</t>
-  </si>
-  <si>
-    <t>[에스앤알디]신발 운동화 스니커즈 슬립온 단화 캐주얼화 SN184</t>
+    <t>[베베쥬]베베쥬 20%쿠폰/데일리룩 등원룩/상하복원피스하의류맨투맨 외</t>
+  </si>
+  <si>
+    <t>[브리타]막스트라 플러스 필터 3개월분</t>
+  </si>
+  <si>
+    <t>[스파클][스파클 무라벨] 스파클 생수 2리터 42병</t>
+  </si>
+  <si>
+    <t>[청정원]청정원 멸치 컵쌀국수 92g 12입(1박스)</t>
+  </si>
+  <si>
+    <t>[네추럴라이즈](캐나다직수입)비타민C 아연 꾸미 츄어블 어린이 키즈 비타민 구미 젤리 3박스(총 180개) 특가</t>
+  </si>
+  <si>
+    <t>[네추럴라이즈](캐나다직수입)칼슘 비타민D 꾸미 츄어블 어린이 키즈 비타민 구미 젤리 3박스(총 180개) 특가</t>
+  </si>
+  <si>
+    <t>[오뚜기밥](전단상품)오뚜기맛있는오뚜기밥210x24입</t>
+  </si>
+  <si>
+    <t>[초코파이정]오리온 초코파이 48P 1872g(1박스)</t>
+  </si>
+  <si>
+    <t>[칠성사이다]칠성 사이다 210ml x 30캔/탄산음료/사이다/음료수</t>
+  </si>
+  <si>
+    <t>[아이러브베베]아이러브베베물티슈 아이보리72매캡형X20팩</t>
+  </si>
+  <si>
+    <t>EBS 수능특강(23년) 2024년 수능대비 선택</t>
+  </si>
+  <si>
+    <t>(20%쿠폰) 푸마키즈 바람막이/맨투맨/티셔츠 50종 봄특가</t>
+  </si>
+  <si>
+    <t>10%추가할인+사은품_아주 작은 반복의 힘 독서 인기도서 골라담기</t>
+  </si>
+  <si>
+    <t>뱅뱅外 S/S오픈 특가 아우터/데님/맨투맨/팬츠 외</t>
+  </si>
+  <si>
+    <t>[하림]용가리치킨300g 4봉 (무료배송)</t>
+  </si>
+  <si>
+    <t>[올반키친]올반 찰핫도그 80g X 30봉(신세계푸드 중복쿠폰 다운)</t>
+  </si>
+  <si>
+    <t>[노스페이스]NJ3LL08 키즈 컴팩트 에어리 자켓</t>
+  </si>
+  <si>
+    <t>37,910</t>
+  </si>
+  <si>
+    <t>20,900</t>
+  </si>
+  <si>
+    <t>24,500</t>
+  </si>
+  <si>
+    <t>19,350</t>
+  </si>
+  <si>
+    <t>60,210</t>
+  </si>
+  <si>
+    <t>29,360</t>
+  </si>
+  <si>
+    <t>9,900</t>
+  </si>
+  <si>
+    <t>26,640</t>
+  </si>
+  <si>
+    <t>41,900</t>
+  </si>
+  <si>
+    <t>30,500</t>
+  </si>
+  <si>
+    <t>29,400</t>
+  </si>
+  <si>
+    <t>95,000</t>
+  </si>
+  <si>
+    <t>21,900</t>
+  </si>
+  <si>
+    <t>37,000</t>
+  </si>
+  <si>
+    <t>22,330</t>
+  </si>
+  <si>
+    <t>11,330</t>
+  </si>
+  <si>
+    <t>24,700</t>
+  </si>
+  <si>
+    <t>26,000</t>
+  </si>
+  <si>
+    <t>23,850</t>
+  </si>
+  <si>
+    <t>14,500</t>
+  </si>
+  <si>
+    <t>18,800</t>
+  </si>
+  <si>
+    <t>47,500</t>
+  </si>
+  <si>
+    <t>40,760</t>
+  </si>
+  <si>
+    <t>25,080</t>
+  </si>
+  <si>
+    <t>8,900</t>
+  </si>
+  <si>
+    <t>24,900</t>
+  </si>
+  <si>
+    <t>17,000</t>
+  </si>
+  <si>
+    <t>13,950</t>
+  </si>
+  <si>
+    <t>43,900</t>
+  </si>
+  <si>
+    <t>44,990</t>
+  </si>
+  <si>
+    <t>27,500</t>
+  </si>
+  <si>
+    <t>64,000</t>
+  </si>
+  <si>
+    <t>39,900</t>
+  </si>
+  <si>
+    <t>34,110</t>
+  </si>
+  <si>
+    <t>32,900</t>
+  </si>
+  <si>
+    <t>12,510</t>
+  </si>
+  <si>
+    <t>28,500</t>
+  </si>
+  <si>
+    <t>13,900</t>
+  </si>
+  <si>
+    <t>30,370</t>
+  </si>
+  <si>
+    <t>16,700</t>
+  </si>
+  <si>
+    <t>190,000</t>
+  </si>
+  <si>
+    <t>26,420</t>
+  </si>
+  <si>
+    <t>39,810</t>
+  </si>
+  <si>
+    <t>27,900</t>
+  </si>
+  <si>
+    <t>38,600</t>
+  </si>
+  <si>
+    <t>19,200</t>
+  </si>
+  <si>
+    <t>10,480</t>
+  </si>
+  <si>
+    <t>58,790</t>
+  </si>
+  <si>
+    <t>15,660</t>
+  </si>
+  <si>
+    <t>56,910</t>
+  </si>
+  <si>
+    <t>29,700</t>
+  </si>
+  <si>
+    <t>33,900</t>
+  </si>
+  <si>
+    <t>60,900</t>
+  </si>
+  <si>
+    <t>79,000</t>
+  </si>
+  <si>
+    <t>28,900</t>
+  </si>
+  <si>
+    <t>52,490</t>
+  </si>
+  <si>
+    <t>13,400</t>
+  </si>
+  <si>
+    <t>17,870</t>
+  </si>
+  <si>
+    <t>22,800</t>
+  </si>
+  <si>
+    <t>15,900</t>
+  </si>
+  <si>
+    <t>14,900</t>
+  </si>
+  <si>
+    <t>9,500</t>
+  </si>
+  <si>
+    <t>18,820</t>
+  </si>
+  <si>
+    <t>19,900</t>
+  </si>
+  <si>
+    <t>59,800</t>
+  </si>
+  <si>
+    <t>87,200</t>
+  </si>
+  <si>
+    <t>46,900</t>
+  </si>
+  <si>
+    <t>18,500</t>
+  </si>
+  <si>
+    <t>15,000</t>
+  </si>
+  <si>
+    <t>8,980</t>
+  </si>
+  <si>
+    <t>22,410</t>
+  </si>
+  <si>
+    <t>26,700</t>
+  </si>
+  <si>
+    <t>25,200</t>
+  </si>
+  <si>
+    <t>26,500</t>
+  </si>
+  <si>
+    <t>130,000</t>
+  </si>
+  <si>
+    <t>17,900</t>
+  </si>
+  <si>
+    <t>26,120</t>
+  </si>
+  <si>
+    <t>5,970</t>
+  </si>
+  <si>
+    <t>41,370</t>
+  </si>
+  <si>
+    <t>22,700</t>
+  </si>
+  <si>
+    <t>38,170</t>
+  </si>
+  <si>
+    <t>58,300</t>
+  </si>
+  <si>
+    <t>33,950</t>
+  </si>
+  <si>
+    <t>62,100</t>
+  </si>
+  <si>
+    <t>32,800</t>
+  </si>
+  <si>
+    <t>17,200</t>
+  </si>
+  <si>
+    <t>49,000</t>
+  </si>
+  <si>
+    <t>30,900</t>
+  </si>
+  <si>
+    <t>50,700</t>
+  </si>
+  <si>
+    <t>25,500</t>
+  </si>
+  <si>
+    <t>32,500</t>
+  </si>
+  <si>
+    <t>16,500</t>
+  </si>
+  <si>
+    <t>28,750</t>
+  </si>
+  <si>
+    <t>46,500</t>
+  </si>
+  <si>
+    <t>10,900</t>
+  </si>
+  <si>
+    <t>39,600</t>
+  </si>
+  <si>
+    <t>45,000</t>
+  </si>
+  <si>
+    <t>22,320</t>
+  </si>
+  <si>
+    <t>26,900</t>
+  </si>
+  <si>
+    <t>35,700</t>
+  </si>
+  <si>
+    <t>21,120</t>
+  </si>
+  <si>
+    <t>40,500</t>
+  </si>
+  <si>
+    <t>25,040</t>
+  </si>
+  <si>
+    <t>36,000</t>
+  </si>
+  <si>
+    <t>142,500</t>
+  </si>
+  <si>
+    <t>27,970</t>
+  </si>
+  <si>
+    <t>71,500</t>
+  </si>
+  <si>
+    <t>30,890</t>
+  </si>
+  <si>
+    <t>53,920</t>
+  </si>
+  <si>
+    <t>40,010</t>
+  </si>
+  <si>
+    <t>12,900</t>
+  </si>
+  <si>
+    <t>39,840</t>
+  </si>
+  <si>
+    <t>32,000</t>
+  </si>
+  <si>
+    <t>25,900</t>
+  </si>
+  <si>
+    <t>29,900</t>
+  </si>
+  <si>
+    <t>27,000</t>
+  </si>
+  <si>
+    <t>46,330</t>
+  </si>
+  <si>
+    <t>33,500</t>
+  </si>
+  <si>
+    <t>11,900</t>
+  </si>
+  <si>
+    <t>499,000</t>
+  </si>
+  <si>
+    <t>28,800</t>
+  </si>
+  <si>
+    <t>36,900</t>
+  </si>
+  <si>
+    <t>26,010</t>
+  </si>
+  <si>
+    <t>17,700</t>
+  </si>
+  <si>
+    <t>19,300</t>
+  </si>
+  <si>
+    <t>23,800</t>
+  </si>
+  <si>
+    <t>16,720</t>
+  </si>
+  <si>
+    <t>20,000</t>
+  </si>
+  <si>
+    <t>12,960</t>
+  </si>
+  <si>
+    <t>29,230</t>
+  </si>
+  <si>
+    <t>54,500</t>
+  </si>
+  <si>
+    <t>34,900</t>
+  </si>
+  <si>
+    <t>22,180</t>
+  </si>
+  <si>
+    <t>35,900</t>
+  </si>
+  <si>
+    <t>47,900</t>
+  </si>
+  <si>
+    <t>26,800</t>
+  </si>
+  <si>
+    <t>31,400</t>
+  </si>
+  <si>
+    <t>20,800</t>
+  </si>
+  <si>
+    <t>16,900</t>
   </si>
   <si>
     <t>8,670</t>
   </si>
   <si>
-    <t>12,400</t>
-  </si>
-  <si>
-    <t>12,000</t>
-  </si>
-  <si>
-    <t>9,900</t>
-  </si>
-  <si>
-    <t>56,970</t>
-  </si>
-  <si>
-    <t>51,900</t>
-  </si>
-  <si>
-    <t>7,740</t>
-  </si>
-  <si>
-    <t>12,900</t>
-  </si>
-  <si>
-    <t>629,000</t>
-  </si>
-  <si>
-    <t>8,880</t>
-  </si>
-  <si>
-    <t>27,800</t>
-  </si>
-  <si>
-    <t>6,900</t>
-  </si>
-  <si>
-    <t>8,900</t>
-  </si>
-  <si>
-    <t>32,000</t>
-  </si>
-  <si>
-    <t>19,500</t>
-  </si>
-  <si>
-    <t>29,790</t>
-  </si>
-  <si>
-    <t>10,900</t>
-  </si>
-  <si>
-    <t>20,900</t>
-  </si>
-  <si>
-    <t>28,800</t>
-  </si>
-  <si>
-    <t>16,100</t>
-  </si>
-  <si>
-    <t>16,900</t>
-  </si>
-  <si>
-    <t>103,400</t>
-  </si>
-  <si>
-    <t>54,000</t>
-  </si>
-  <si>
-    <t>17,400</t>
-  </si>
-  <si>
-    <t>25,800</t>
-  </si>
-  <si>
-    <t>15,800</t>
-  </si>
-  <si>
-    <t>17,800</t>
-  </si>
-  <si>
-    <t>37,330</t>
-  </si>
-  <si>
-    <t>20,500</t>
-  </si>
-  <si>
-    <t>15,900</t>
-  </si>
-  <si>
-    <t>7,890</t>
-  </si>
-  <si>
-    <t>33,500</t>
-  </si>
-  <si>
-    <t>17,520</t>
-  </si>
-  <si>
-    <t>21,800</t>
-  </si>
-  <si>
-    <t>13,900</t>
-  </si>
-  <si>
-    <t>35,000</t>
-  </si>
-  <si>
-    <t>38,800</t>
-  </si>
-  <si>
-    <t>35,700</t>
-  </si>
-  <si>
-    <t>39,000</t>
-  </si>
-  <si>
-    <t>59,000</t>
-  </si>
-  <si>
-    <t>85,000</t>
-  </si>
-  <si>
-    <t>11,800</t>
-  </si>
-  <si>
-    <t>45,900</t>
-  </si>
-  <si>
-    <t>8,850</t>
-  </si>
-  <si>
-    <t>13,800</t>
-  </si>
-  <si>
-    <t>24,930</t>
-  </si>
-  <si>
-    <t>37,800</t>
-  </si>
-  <si>
-    <t>50,000</t>
-  </si>
-  <si>
-    <t>14,800</t>
-  </si>
-  <si>
-    <t>129,000</t>
-  </si>
-  <si>
-    <t>14,900</t>
-  </si>
-  <si>
-    <t>57,900</t>
-  </si>
-  <si>
-    <t>16,800</t>
-  </si>
-  <si>
-    <t>2,500</t>
-  </si>
-  <si>
-    <t>41,500</t>
-  </si>
-  <si>
-    <t>19,900</t>
-  </si>
-  <si>
-    <t>39,900</t>
-  </si>
-  <si>
-    <t>119,000</t>
-  </si>
-  <si>
-    <t>43,900</t>
-  </si>
-  <si>
-    <t>18,880</t>
-  </si>
-  <si>
-    <t>138,000</t>
-  </si>
-  <si>
-    <t>72,470</t>
-  </si>
-  <si>
-    <t>10,800</t>
-  </si>
-  <si>
-    <t>4,900</t>
-  </si>
-  <si>
-    <t>11,900</t>
-  </si>
-  <si>
-    <t>139,000</t>
-  </si>
-  <si>
-    <t>7,900</t>
-  </si>
-  <si>
-    <t>33,000</t>
+    <t>10,600</t>
+  </si>
+  <si>
+    <t>21,720</t>
+  </si>
+  <si>
+    <t>17,500</t>
+  </si>
+  <si>
+    <t>18,900</t>
+  </si>
+  <si>
+    <t>5,850</t>
+  </si>
+  <si>
+    <t>3,900</t>
+  </si>
+  <si>
+    <t>19,000</t>
+  </si>
+  <si>
+    <t>38,250</t>
+  </si>
+  <si>
+    <t>44,090</t>
   </si>
 </sst>
 </file>
@@ -875,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -908,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -919,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -930,7 +1479,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -941,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -952,7 +1501,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -963,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -974,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -985,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -996,7 +1545,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1007,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1018,7 +1567,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1029,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1040,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1051,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1062,7 +1611,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1073,7 +1622,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1081,10 +1630,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1092,10 +1641,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1103,10 +1652,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1114,10 +1663,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1125,10 +1674,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1136,10 +1685,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1147,10 +1696,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1158,10 +1707,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1169,10 +1718,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1180,10 +1729,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1191,10 +1740,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1202,10 +1751,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1213,10 +1762,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1224,10 +1773,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1235,10 +1784,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1246,10 +1795,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1257,10 +1806,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1268,10 +1817,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1279,10 +1828,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1290,10 +1839,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1301,10 +1850,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1312,10 +1861,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1323,10 +1872,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1334,10 +1883,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1345,10 +1894,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1356,10 +1905,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1367,10 +1916,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1378,10 +1927,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1389,10 +1938,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1400,10 +1949,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1411,10 +1960,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1422,10 +1971,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1433,10 +1982,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1444,10 +1993,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1455,10 +2004,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1466,10 +2015,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1477,10 +2026,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1488,10 +2037,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1499,10 +2048,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1510,10 +2059,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1521,10 +2070,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1532,10 +2081,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1543,10 +2092,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1554,10 +2103,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1565,10 +2114,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1576,10 +2125,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1587,10 +2136,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1598,10 +2147,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1609,10 +2158,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1620,10 +2169,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1631,10 +2180,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1642,10 +2191,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1653,10 +2202,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1664,10 +2213,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1675,10 +2224,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1686,10 +2235,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1697,10 +2246,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1708,10 +2257,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1719,10 +2268,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1730,10 +2279,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1741,10 +2290,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1752,10 +2301,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1763,10 +2312,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1774,10 +2323,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1785,10 +2334,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1796,10 +2345,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1807,10 +2356,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1818,10 +2367,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>107</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1829,10 +2378,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1840,10 +2389,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>133</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1851,10 +2400,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1862,10 +2411,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1873,10 +2422,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1884,10 +2433,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1895,10 +2444,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1906,10 +2455,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1917,10 +2466,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1928,10 +2477,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>126</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1939,10 +2488,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1950,10 +2499,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1961,10 +2510,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1972,10 +2521,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1983,10 +2532,1110 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
         <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>181</v>
+      </c>
+      <c r="C181" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>183</v>
+      </c>
+      <c r="C183" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>184</v>
+      </c>
+      <c r="C184" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>187</v>
+      </c>
+      <c r="C187" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>189</v>
+      </c>
+      <c r="C189" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>190</v>
+      </c>
+      <c r="C190" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>191</v>
+      </c>
+      <c r="C191" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>192</v>
+      </c>
+      <c r="C192" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>193</v>
+      </c>
+      <c r="C193" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>194</v>
+      </c>
+      <c r="C194" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>195</v>
+      </c>
+      <c r="C195" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>196</v>
+      </c>
+      <c r="C196" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>197</v>
+      </c>
+      <c r="C197" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>198</v>
+      </c>
+      <c r="C198" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>199</v>
+      </c>
+      <c r="C199" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>200</v>
+      </c>
+      <c r="C200" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>201</v>
+      </c>
+      <c r="C201" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
